--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuSeeker\Desktop\6o-semestre\design-computadores\descomp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Insper\Design de Computadores\descomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA22E79-FE30-4156-9B0C-C82602E14C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DAC9B-0129-4619-998A-A34DA5CEFCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="552" windowWidth="23040" windowHeight="12360" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9EF5C-B1FE-44D4-B4D0-44CB26583B80}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
         <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
         <v>176</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1648,7 @@
         <v>177</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>178</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,7 +1734,7 @@
         <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -1751,10 +1751,10 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
         <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,7 +1810,7 @@
         <v>177</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,7 +1882,7 @@
         <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -2528,5 +2528,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Insper\Design de Computadores\descomp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuSeeker\Desktop\6o-semestre\design-computadores\descomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DAC9B-0129-4619-998A-A34DA5CEFCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735EE3E-5A37-4E82-8699-BBED74C06070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
+    <workbookView xWindow="8568" yWindow="1008" windowWidth="23040" windowHeight="12228" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="184">
   <si>
     <t>Opcode</t>
   </si>
@@ -571,6 +571,18 @@
   </si>
   <si>
     <t>01010111</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>00001011</t>
+  </si>
+  <si>
+    <t>00001100</t>
+  </si>
+  <si>
+    <t>00001101</t>
   </si>
 </sst>
 </file>
@@ -925,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9EF5C-B1FE-44D4-B4D0-44CB26583B80}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1012,12 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>29</v>
@@ -1700,6 +1718,12 @@
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -1712,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,6 +1886,12 @@
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -1912,6 +1942,12 @@
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -2101,6 +2137,12 @@
       </c>
       <c r="B77" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuSeeker\Desktop\6o-semestre\design-computadores\descomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735EE3E-5A37-4E82-8699-BBED74C06070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AFB6AE-DEB5-4C48-9AC0-DB9C08B47AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8568" yWindow="1008" windowWidth="23040" windowHeight="12228" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="185">
   <si>
     <t>Opcode</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>00001101</t>
+  </si>
+  <si>
+    <t>Concatenado</t>
   </si>
 </sst>
 </file>
@@ -935,19 +938,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9EF5C-B1FE-44D4-B4D0-44CB26583B80}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -960,23 +964,26 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>159</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>160</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -989,23 +996,27 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(B2:D2)</f>
+        <v>0000000001100000</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1018,23 +1029,27 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(B3:D3)</f>
+        <v>0001000010100000</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1047,23 +1062,27 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001101000</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1076,20 +1095,24 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001011000000</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1102,20 +1125,24 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000000000</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1128,20 +1155,24 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000000000000</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1154,17 +1185,23 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000001010</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1177,17 +1214,23 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001001100000</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1200,14 +1243,20 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000000000</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1220,8 +1269,12 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000010000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1234,8 +1287,12 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000000010000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1248,8 +1305,12 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000010110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1262,8 +1323,12 @@
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001001100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1276,8 +1341,12 @@
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000010000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1290,8 +1359,12 @@
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1304,8 +1377,12 @@
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000000100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1318,8 +1395,12 @@
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000101010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1332,8 +1413,12 @@
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001001100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1346,8 +1431,12 @@
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1360,8 +1449,12 @@
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000110000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1374,8 +1467,12 @@
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000000110000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1388,8 +1485,12 @@
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000110110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1402,8 +1503,12 @@
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001001100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1416,8 +1521,12 @@
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000110000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1430,8 +1539,12 @@
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000001000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1444,8 +1557,12 @@
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000001000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1458,8 +1575,12 @@
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001000100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1472,8 +1593,12 @@
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000010000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1486,8 +1611,12 @@
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001010010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1500,8 +1629,12 @@
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001001100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -1514,8 +1647,12 @@
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1528,8 +1665,12 @@
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000001010000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1542,8 +1683,12 @@
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>1000001001100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1556,8 +1701,12 @@
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001001010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1570,8 +1719,12 @@
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001001100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1584,8 +1737,12 @@
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1598,8 +1755,12 @@
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000001010000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1612,8 +1773,12 @@
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000001010000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -1626,8 +1791,12 @@
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -1640,8 +1809,12 @@
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000010010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -1654,8 +1827,12 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000100011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -1668,8 +1845,12 @@
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000110100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -1682,8 +1863,12 @@
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001000101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -1696,8 +1881,12 @@
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001010110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -1710,8 +1899,12 @@
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001100111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -1724,8 +1917,12 @@
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>0001000010110000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -1738,8 +1935,12 @@
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001100100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
@@ -1752,8 +1953,12 @@
       <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000000000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -1766,8 +1971,12 @@
       <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
@@ -1780,8 +1989,12 @@
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000010000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -1794,8 +2007,12 @@
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
@@ -1808,8 +2025,12 @@
       <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000010010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -1822,8 +2043,12 @@
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000100011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
@@ -1836,8 +2061,12 @@
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000110100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -1850,8 +2079,12 @@
       <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001000101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
@@ -1864,8 +2097,12 @@
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001010110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>88</v>
       </c>
@@ -1878,8 +2115,12 @@
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001100111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -1892,8 +2133,12 @@
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>0001000010110000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>90</v>
       </c>
@@ -1904,10 +2149,14 @@
         <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001100100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>91</v>
       </c>
@@ -1920,8 +2169,12 @@
       <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>92</v>
       </c>
@@ -1934,8 +2187,12 @@
       <c r="D62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001101000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>93</v>
       </c>
@@ -1948,8 +2205,12 @@
       <c r="D63" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>0001000011000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>94</v>
       </c>
@@ -1960,10 +2221,14 @@
         <v>22</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001100010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>95</v>
       </c>
@@ -1976,8 +2241,12 @@
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>0011010010100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
@@ -1990,8 +2259,12 @@
       <c r="D66" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000100000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -2004,8 +2277,12 @@
       <c r="D67" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E95" si="1">_xlfn.CONCAT(B67:D67)</f>
+        <v>0101000000100000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>97</v>
       </c>
@@ -2018,8 +2295,12 @@
       <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000000101010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>98</v>
       </c>
@@ -2032,8 +2313,12 @@
       <c r="D69" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001100010000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>100</v>
       </c>
@@ -2046,8 +2331,12 @@
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000000100000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>99</v>
       </c>
@@ -2060,8 +2349,12 @@
       <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>0100000000110000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
@@ -2074,8 +2367,12 @@
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000000110000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>102</v>
       </c>
@@ -2088,8 +2385,12 @@
       <c r="D73" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000000110110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -2102,8 +2403,12 @@
       <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001100010000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
@@ -2116,8 +2421,12 @@
       <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000000110000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
@@ -2130,8 +2439,12 @@
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000001101001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>106</v>
       </c>
@@ -2144,8 +2457,12 @@
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>0001000011010000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>107</v>
       </c>
@@ -2158,8 +2475,12 @@
       <c r="D78" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001100001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
@@ -2172,8 +2493,12 @@
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001100010000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
@@ -2186,8 +2511,12 @@
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>0100000001000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>110</v>
       </c>
@@ -2200,8 +2529,12 @@
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000001000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>111</v>
       </c>
@@ -2214,8 +2547,12 @@
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001000100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>112</v>
       </c>
@@ -2228,8 +2565,12 @@
       <c r="D83" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>0011010101110000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>113</v>
       </c>
@@ -2242,8 +2583,12 @@
       <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001010010</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>114</v>
       </c>
@@ -2256,8 +2601,12 @@
       <c r="D85" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001100010000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>115</v>
       </c>
@@ -2270,8 +2619,12 @@
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>116</v>
       </c>
@@ -2284,8 +2637,12 @@
       <c r="D87" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000001010000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>117</v>
       </c>
@@ -2298,8 +2655,12 @@
       <c r="D88" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>1000001100010000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>118</v>
       </c>
@@ -2312,8 +2673,12 @@
       <c r="D89" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001001010</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>119</v>
       </c>
@@ -2326,8 +2691,12 @@
       <c r="D90" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001100010000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>120</v>
       </c>
@@ -2340,8 +2709,12 @@
       <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>121</v>
       </c>
@@ -2354,8 +2727,12 @@
       <c r="D92" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>0100000001010000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>122</v>
       </c>
@@ -2368,8 +2745,12 @@
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000001010000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>123</v>
       </c>
@@ -2382,8 +2763,12 @@
       <c r="D94" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>1000001100010000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>124</v>
       </c>
@@ -2396,8 +2781,12 @@
       <c r="D95" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuSeeker\Desktop\6o-semestre\design-computadores\descomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AFB6AE-DEB5-4C48-9AC0-DB9C08B47AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2135C0-6870-4FBC-9FF5-FAB718C77EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8568" yWindow="1008" windowWidth="23040" windowHeight="12228" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
+    <workbookView xWindow="3024" yWindow="552" windowWidth="23040" windowHeight="12228" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="190">
   <si>
     <t>Opcode</t>
   </si>
@@ -586,6 +586,21 @@
   </si>
   <si>
     <t>Concatenado</t>
+  </si>
+  <si>
+    <t>01001110</t>
+  </si>
+  <si>
+    <t>01000010</t>
+  </si>
+  <si>
+    <t>00101010</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>00011100</t>
   </si>
 </sst>
 </file>
@@ -941,7 +956,7 @@
   <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E95"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>162</v>
@@ -1037,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>163</v>
@@ -1070,7 +1085,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>164</v>
@@ -1103,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>165</v>
@@ -1133,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>166</v>
@@ -1163,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>167</v>
@@ -1882,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B45:D45)</f>
         <v>0110000001010110</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuSeeker\Desktop\6o-semestre\design-computadores\descomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2135C0-6870-4FBC-9FF5-FAB718C77EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2124DB70-2FD6-4D31-9999-AFCE1A9E7904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="552" windowWidth="23040" windowHeight="12228" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="23040" windowHeight="12228" activeTab="1" xr2:uid="{9144EC38-7B69-4A64-A9AB-57305826A169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="203">
   <si>
     <t>Opcode</t>
   </si>
@@ -558,9 +560,6 @@
     <t>IM</t>
   </si>
   <si>
-    <t>IM(0)</t>
-  </si>
-  <si>
     <t>00000010</t>
   </si>
   <si>
@@ -588,19 +587,61 @@
     <t>Concatenado</t>
   </si>
   <si>
-    <t>01001110</t>
-  </si>
-  <si>
-    <t>01000010</t>
+    <t>01001000</t>
+  </si>
+  <si>
+    <t>00111110</t>
+  </si>
+  <si>
+    <t>00101000</t>
+  </si>
+  <si>
+    <t>00100101</t>
+  </si>
+  <si>
+    <t>00011111</t>
+  </si>
+  <si>
+    <t>00011011</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>WIRTES</t>
+  </si>
+  <si>
+    <t>00011100</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>00100111</t>
   </si>
   <si>
     <t>00101010</t>
   </si>
   <si>
-    <t>00100000</t>
-  </si>
-  <si>
-    <t>00011100</t>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>01001011</t>
+  </si>
+  <si>
+    <t>opcode</t>
   </si>
 </sst>
 </file>
@@ -636,9 +677,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9EF5C-B1FE-44D4-B4D0-44CB26583B80}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1019,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>162</v>
@@ -1039,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1057,11 +1099,9 @@
       <c r="J3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1118,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>165</v>
@@ -1148,7 +1188,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>166</v>
@@ -1178,7 +1218,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>167</v>
@@ -1369,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -1387,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -1405,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -1441,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -1459,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -1477,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -1495,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1531,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -1621,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -1675,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -1765,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1783,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -1837,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
@@ -1855,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -1891,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -1927,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
@@ -2053,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>8</v>
@@ -2071,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
@@ -2107,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -2143,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
@@ -2215,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -2269,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
@@ -2287,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>5</v>
@@ -2305,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>18</v>
@@ -2341,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>5</v>
@@ -2359,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -2377,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -2395,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -2431,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
@@ -2467,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
@@ -2575,7 +2615,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>5</v>
@@ -2593,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>7</v>
@@ -2647,7 +2687,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>5</v>
@@ -2737,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>5</v>
@@ -2755,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
@@ -2978,4 +3018,1331 @@
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1542D42C-1BAF-44F5-AE12-3A48CB87AC1D}">
+  <dimension ref="A1:I82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>_xlfn.CONCAT(B2:D2)</f>
+        <v>0001000000001010</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(B3:D3)</f>
+        <v>0000000001100000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>_xlfn.CONCAT(B4:D4)</f>
+        <v>0010000001101000</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>_xlfn.CONCAT(B5:D5)</f>
+        <v>0011001001110000</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000000000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000001010</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000000000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000010000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000010110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000010000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000101010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000110000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000110110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000110000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000001000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001000100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000111000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001010010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000001010000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1000001000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001001010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000001010000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000010010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000100011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000110100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001000101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001010110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001100111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001100001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000000010000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000010000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000010010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000100011</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000000110100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001000101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000001010110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001100111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001100000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000000010000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001101000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000001100010</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011010000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000100000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000101010</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001010100000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000110000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000000110000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000110110</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001010100000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000000110000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001101001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" ref="E67:E82" si="1">_xlfn.CONCAT(B67:D67)</f>
+        <v>0010000011010100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001010100000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0100000001000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001000100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011010010110000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001010010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001010100000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000001010000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1000001010100000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000001001010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001010100000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0111000001000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0100000001010000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1000001010100000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f>_xlfn.CONCAT(B82:D82)</f>
+        <v>1000000000010000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>